--- a/08 Project Management/Tidsregistrering/PM09 Tidsregistrering For Daniel.xlsx
+++ b/08 Project Management/Tidsregistrering/PM09 Tidsregistrering For Daniel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0800B8C-7929-48D7-95C2-E8655E2BE09D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F701687-E66B-421C-A2B0-3718C108EE1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="Roller">'Ark2'!$B$3:$B$31</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
-  <si>
-    <t>Tidsregistrering af (Navn)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Dato</t>
   </si>
@@ -169,6 +169,15 @@
   </si>
   <si>
     <t>Opretted af Risikoanlyse</t>
+  </si>
+  <si>
+    <t>Kundemøde indsamling af data til UC02</t>
+  </si>
+  <si>
+    <t>Kundemøde burdetest til UC01 og UC08</t>
+  </si>
+  <si>
+    <t>Tidsregistrering af Daniel Sikorski</t>
   </si>
 </sst>
 </file>
@@ -751,7 +760,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -767,7 +776,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="23" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -779,36 +788,36 @@
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="12">
         <v>43885</v>
@@ -820,7 +829,7 @@
         <v>0.4201388888888889</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="5">
         <f>E3-D3</f>
@@ -833,10 +842,10 @@
     </row>
     <row r="4" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="15">
         <v>43885</v>
@@ -848,7 +857,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" ref="G4:G32" si="0">E4-D4</f>
@@ -860,31 +869,55 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
+      <c r="A5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="15">
+        <v>43887</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.49305555555555558</v>
+      </c>
       <c r="F5" s="21"/>
       <c r="G5" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.4722222222222265E-2</v>
       </c>
       <c r="H5" s="1">
         <f>SUM(G$3:G5)</f>
-        <v>0.26388888888888884</v>
+        <v>0.2986111111111111</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="A6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="15">
+        <v>43887</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0.53125</v>
+      </c>
       <c r="F6" s="21"/>
       <c r="G6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H6" s="1">
         <f>SUM(G$3:G6)</f>
-        <v>0.26388888888888884</v>
+        <v>0.3298611111111111</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -898,7 +931,7 @@
       </c>
       <c r="H7" s="1">
         <f>SUM(G$3:G7)</f>
-        <v>0.26388888888888884</v>
+        <v>0.3298611111111111</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -912,7 +945,7 @@
       </c>
       <c r="H8" s="1">
         <f>SUM(G$3:G8)</f>
-        <v>0.26388888888888884</v>
+        <v>0.3298611111111111</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -926,7 +959,7 @@
       </c>
       <c r="H9" s="1">
         <f>SUM(G$3:G9)</f>
-        <v>0.26388888888888884</v>
+        <v>0.3298611111111111</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -940,7 +973,7 @@
       </c>
       <c r="H10" s="1">
         <f>SUM(G$3:G10)</f>
-        <v>0.26388888888888884</v>
+        <v>0.3298611111111111</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -954,7 +987,7 @@
       </c>
       <c r="H11" s="1">
         <f>SUM(G$3:G11)</f>
-        <v>0.26388888888888884</v>
+        <v>0.3298611111111111</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -968,7 +1001,7 @@
       </c>
       <c r="H12" s="1">
         <f>SUM(G$3:G12)</f>
-        <v>0.26388888888888884</v>
+        <v>0.3298611111111111</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -982,7 +1015,7 @@
       </c>
       <c r="H13" s="1">
         <f>SUM(G$3:G13)</f>
-        <v>0.26388888888888884</v>
+        <v>0.3298611111111111</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -994,7 +1027,7 @@
       </c>
       <c r="H14" s="1">
         <f>SUM(G$3:G14)</f>
-        <v>0.26388888888888884</v>
+        <v>0.3298611111111111</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1006,7 +1039,7 @@
       </c>
       <c r="H15" s="1">
         <f>SUM(G$3:G15)</f>
-        <v>0.26388888888888884</v>
+        <v>0.3298611111111111</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1018,7 +1051,7 @@
       </c>
       <c r="H16" s="1">
         <f>SUM(G$3:G16)</f>
-        <v>0.26388888888888884</v>
+        <v>0.3298611111111111</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1030,7 +1063,7 @@
       </c>
       <c r="H17" s="1">
         <f>SUM(G$3:G17)</f>
-        <v>0.26388888888888884</v>
+        <v>0.3298611111111111</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1042,7 +1075,7 @@
       </c>
       <c r="H18" s="1">
         <f>SUM(G$3:G18)</f>
-        <v>0.26388888888888884</v>
+        <v>0.3298611111111111</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1054,7 +1087,7 @@
       </c>
       <c r="H19" s="1">
         <f>SUM(G$3:G19)</f>
-        <v>0.26388888888888884</v>
+        <v>0.3298611111111111</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1066,7 +1099,7 @@
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>0.26388888888888884</v>
+        <v>0.3298611111111111</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1078,7 +1111,7 @@
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>0.26388888888888884</v>
+        <v>0.3298611111111111</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1090,7 +1123,7 @@
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>0.26388888888888884</v>
+        <v>0.3298611111111111</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1102,7 +1135,7 @@
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>0.26388888888888884</v>
+        <v>0.3298611111111111</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1114,7 +1147,7 @@
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.26388888888888884</v>
+        <v>0.3298611111111111</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1125,7 +1158,7 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.26388888888888884</v>
+        <v>0.3298611111111111</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1136,7 +1169,7 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.26388888888888884</v>
+        <v>0.3298611111111111</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1147,7 +1180,7 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.26388888888888884</v>
+        <v>0.3298611111111111</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1158,7 +1191,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.26388888888888884</v>
+        <v>0.3298611111111111</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1169,7 +1202,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.26388888888888884</v>
+        <v>0.3298611111111111</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1180,7 +1213,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.26388888888888884</v>
+        <v>0.3298611111111111</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1191,7 +1224,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.26388888888888884</v>
+        <v>0.3298611111111111</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1202,7 +1235,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.26388888888888884</v>
+        <v>0.3298611111111111</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
@@ -1288,7 +1321,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -1297,10 +1330,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1308,7 +1341,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1316,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1324,7 +1357,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1332,7 +1365,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1340,7 +1373,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1348,7 +1381,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1356,7 +1389,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1364,7 +1397,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1372,7 +1405,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1380,7 +1413,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1388,7 +1421,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1396,7 +1429,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1404,7 +1437,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1412,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1420,7 +1453,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1428,7 +1461,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1436,7 +1469,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1444,7 +1477,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1452,7 +1485,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1460,7 +1493,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1468,7 +1501,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1476,7 +1509,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1484,7 +1517,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1492,7 +1525,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1500,7 +1533,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1508,7 +1541,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1516,7 +1549,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1524,7 +1557,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1532,7 +1565,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/08 Project Management/Tidsregistrering/PM09 Tidsregistrering For Daniel.xlsx
+++ b/08 Project Management/Tidsregistrering/PM09 Tidsregistrering For Daniel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F701687-E66B-421C-A2B0-3718C108EE1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0E3329-5D48-49F7-BF81-183D90382627}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>Dato</t>
   </si>
@@ -178,6 +178,21 @@
   </si>
   <si>
     <t>Tidsregistrering af Daniel Sikorski</t>
+  </si>
+  <si>
+    <t>Lavet DOM02 Færdigt</t>
+  </si>
+  <si>
+    <t>Lavet UC02 Færdigt</t>
+  </si>
+  <si>
+    <t>Review af DOM06 SFO</t>
+  </si>
+  <si>
+    <t>Review af AD04+DD04+ATD04</t>
+  </si>
+  <si>
+    <t>Lavet SSD04</t>
   </si>
 </sst>
 </file>
@@ -760,7 +775,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,73 +936,124 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="A7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="15">
+        <v>43888</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.375</v>
+      </c>
       <c r="F7" s="21"/>
       <c r="G7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(G$3:G7)</f>
-        <v>0.3298611111111111</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="A8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="15">
+        <v>43888</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.40625</v>
+      </c>
       <c r="F8" s="21"/>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H8" s="1">
         <f>SUM(G$3:G8)</f>
-        <v>0.3298611111111111</v>
+        <v>0.37152777777777779</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+      <c r="A9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="15">
+        <v>43888</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0.4513888888888889</v>
+      </c>
       <c r="F9" s="21"/>
       <c r="G9" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444444753E-3</v>
       </c>
       <c r="H9" s="1">
         <f>SUM(G$3:G9)</f>
-        <v>0.3298611111111111</v>
+        <v>0.37847222222222227</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="A10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="15">
+        <v>43889</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0.38541666666666669</v>
+      </c>
       <c r="F10" s="21"/>
       <c r="G10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H10" s="1">
         <f>SUM(G$3:G10)</f>
-        <v>0.3298611111111111</v>
+        <v>0.39930555555555564</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="A11" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="15">
+        <v>43893</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F11" s="21"/>
       <c r="G11" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="H11" s="1">
         <f>SUM(G$3:G11)</f>
-        <v>0.3298611111111111</v>
+        <v>0.70138888888888895</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1001,7 +1067,7 @@
       </c>
       <c r="H12" s="1">
         <f>SUM(G$3:G12)</f>
-        <v>0.3298611111111111</v>
+        <v>0.70138888888888895</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1015,7 +1081,7 @@
       </c>
       <c r="H13" s="1">
         <f>SUM(G$3:G13)</f>
-        <v>0.3298611111111111</v>
+        <v>0.70138888888888895</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1027,7 +1093,7 @@
       </c>
       <c r="H14" s="1">
         <f>SUM(G$3:G14)</f>
-        <v>0.3298611111111111</v>
+        <v>0.70138888888888895</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1039,7 +1105,7 @@
       </c>
       <c r="H15" s="1">
         <f>SUM(G$3:G15)</f>
-        <v>0.3298611111111111</v>
+        <v>0.70138888888888895</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1051,7 +1117,7 @@
       </c>
       <c r="H16" s="1">
         <f>SUM(G$3:G16)</f>
-        <v>0.3298611111111111</v>
+        <v>0.70138888888888895</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1063,7 +1129,7 @@
       </c>
       <c r="H17" s="1">
         <f>SUM(G$3:G17)</f>
-        <v>0.3298611111111111</v>
+        <v>0.70138888888888895</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1075,7 +1141,7 @@
       </c>
       <c r="H18" s="1">
         <f>SUM(G$3:G18)</f>
-        <v>0.3298611111111111</v>
+        <v>0.70138888888888895</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1087,7 +1153,7 @@
       </c>
       <c r="H19" s="1">
         <f>SUM(G$3:G19)</f>
-        <v>0.3298611111111111</v>
+        <v>0.70138888888888895</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1099,7 +1165,7 @@
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>0.3298611111111111</v>
+        <v>0.70138888888888895</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1111,7 +1177,7 @@
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>0.3298611111111111</v>
+        <v>0.70138888888888895</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1123,7 +1189,7 @@
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>0.3298611111111111</v>
+        <v>0.70138888888888895</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1135,7 +1201,7 @@
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>0.3298611111111111</v>
+        <v>0.70138888888888895</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1147,7 +1213,7 @@
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.3298611111111111</v>
+        <v>0.70138888888888895</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1158,7 +1224,7 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.3298611111111111</v>
+        <v>0.70138888888888895</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1169,7 +1235,7 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.3298611111111111</v>
+        <v>0.70138888888888895</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1180,7 +1246,7 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.3298611111111111</v>
+        <v>0.70138888888888895</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1191,7 +1257,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.3298611111111111</v>
+        <v>0.70138888888888895</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1202,7 +1268,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.3298611111111111</v>
+        <v>0.70138888888888895</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1213,7 +1279,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.3298611111111111</v>
+        <v>0.70138888888888895</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1224,7 +1290,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.3298611111111111</v>
+        <v>0.70138888888888895</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1235,7 +1301,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.3298611111111111</v>
+        <v>0.70138888888888895</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">

--- a/08 Project Management/Tidsregistrering/PM09 Tidsregistrering For Daniel.xlsx
+++ b/08 Project Management/Tidsregistrering/PM09 Tidsregistrering For Daniel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Skrivebord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0E3329-5D48-49F7-BF81-183D90382627}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{BB0E3329-5D48-49F7-BF81-183D90382627}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{869373B7-1A3A-4381-B57A-30BF8FF2F9EE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>Dato</t>
   </si>
@@ -193,6 +193,24 @@
   </si>
   <si>
     <t>Lavet SSD04</t>
+  </si>
+  <si>
+    <t>Lavet vider på SSD04</t>
+  </si>
+  <si>
+    <t>Kunde Møde</t>
+  </si>
+  <si>
+    <t>Lavet AD12</t>
+  </si>
+  <si>
+    <t>Færdig gjort AD12</t>
+  </si>
+  <si>
+    <t>Lavet ATD12</t>
+  </si>
+  <si>
+    <t>Ret UCD1</t>
   </si>
 </sst>
 </file>
@@ -775,7 +793,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,7 +893,7 @@
         <v>42</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" ref="G4:G32" si="0">E4-D4</f>
+        <f t="shared" ref="G4:G40" si="0">E4-D4</f>
         <v>0.22916666666666663</v>
       </c>
       <c r="H4" s="1">
@@ -1057,82 +1075,147 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="A12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="15">
+        <v>43894</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="F12" s="21"/>
       <c r="G12" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H12" s="1">
         <f>SUM(G$3:G12)</f>
-        <v>0.70138888888888895</v>
+        <v>0.73263888888888895</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+      <c r="A13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="15">
+        <v>43894</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0.59375</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0.61458333333333337</v>
+      </c>
       <c r="F13" s="21"/>
       <c r="G13" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="H13" s="1">
         <f>SUM(G$3:G13)</f>
-        <v>0.70138888888888895</v>
+        <v>0.75347222222222232</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C14" s="15"/>
+      <c r="A14" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="15">
+        <v>43894</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0.61458333333333337</v>
+      </c>
+      <c r="E14" s="17">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="F14" s="21"/>
       <c r="G14" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.2083333333333259E-2</v>
       </c>
       <c r="H14" s="1">
         <f>SUM(G$3:G14)</f>
-        <v>0.70138888888888895</v>
+        <v>0.80555555555555558</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C15" s="15"/>
+      <c r="A15" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="15">
+        <v>43895</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="F15" s="21"/>
       <c r="G15" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H15" s="1">
         <f>SUM(G$3:G15)</f>
-        <v>0.70138888888888895</v>
+        <v>0.82638888888888884</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C16" s="15"/>
+      <c r="A16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="15">
+        <v>43895</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0.40277777777777773</v>
+      </c>
       <c r="F16" s="21"/>
       <c r="G16" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="H16" s="1">
         <f>SUM(G$3:G16)</f>
-        <v>0.70138888888888895</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C17" s="15"/>
+        <v>0.83333333333333326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="15">
+        <v>43895</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0.4236111111111111</v>
+      </c>
       <c r="F17" s="21"/>
       <c r="G17" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0416666666666685E-2</v>
       </c>
       <c r="H17" s="1">
         <f>SUM(G$3:G17)</f>
-        <v>0.70138888888888895</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C18" s="15"/>
       <c r="F18" s="21"/>
       <c r="G18" s="5">
@@ -1141,10 +1224,10 @@
       </c>
       <c r="H18" s="1">
         <f>SUM(G$3:G18)</f>
-        <v>0.70138888888888895</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C19" s="15"/>
       <c r="F19" s="21"/>
       <c r="G19" s="5">
@@ -1153,10 +1236,10 @@
       </c>
       <c r="H19" s="1">
         <f>SUM(G$3:G19)</f>
-        <v>0.70138888888888895</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C20" s="15"/>
       <c r="F20" s="21"/>
       <c r="G20" s="5">
@@ -1165,10 +1248,10 @@
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>0.70138888888888895</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C21" s="15"/>
       <c r="F21" s="21"/>
       <c r="G21" s="5">
@@ -1177,10 +1260,10 @@
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>0.70138888888888895</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C22" s="15"/>
       <c r="F22" s="21"/>
       <c r="G22" s="5">
@@ -1189,10 +1272,10 @@
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>0.70138888888888895</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C23" s="15"/>
       <c r="F23" s="21"/>
       <c r="G23" s="5">
@@ -1201,10 +1284,10 @@
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>0.70138888888888895</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C24" s="15"/>
       <c r="F24" s="21"/>
       <c r="G24" s="5">
@@ -1213,10 +1296,10 @@
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.70138888888888895</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C25" s="15"/>
       <c r="G25" s="5">
         <f t="shared" si="0"/>
@@ -1224,10 +1307,10 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.70138888888888895</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C26" s="15"/>
       <c r="G26" s="5">
         <f t="shared" si="0"/>
@@ -1235,10 +1318,10 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.70138888888888895</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C27" s="15"/>
       <c r="G27" s="5">
         <f t="shared" si="0"/>
@@ -1246,10 +1329,10 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.70138888888888895</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C28" s="15"/>
       <c r="G28" s="5">
         <f t="shared" si="0"/>
@@ -1257,10 +1340,10 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.70138888888888895</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C29" s="15"/>
       <c r="G29" s="5">
         <f t="shared" si="0"/>
@@ -1268,10 +1351,10 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.70138888888888895</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C30" s="15"/>
       <c r="G30" s="5">
         <f t="shared" si="0"/>
@@ -1279,10 +1362,10 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.70138888888888895</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C31" s="15"/>
       <c r="G31" s="5">
         <f t="shared" si="0"/>
@@ -1290,10 +1373,10 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.70138888888888895</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C32" s="15"/>
       <c r="G32" s="5">
         <f t="shared" si="0"/>
@@ -1301,7 +1384,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.70138888888888895</v>
+        <v>0.84375</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
